--- a/L-quis_curves.xlsx
+++ b/L-quis_curves.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F61DDC4-2F51-6340-B16A-90C372F7835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DCB40-E743-9D48-A13F-192880601407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="6420" windowWidth="27240" windowHeight="16440" xr2:uid="{2670CEAC-BC7E-7248-9F04-BE1B5D332C24}"/>
+    <workbookView xWindow="34500" yWindow="-1060" windowWidth="27240" windowHeight="16440" xr2:uid="{2670CEAC-BC7E-7248-9F04-BE1B5D332C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,12 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7CA31-23CA-174F-8CA8-CD0C46D9F44B}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,124 +422,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B2" s="1">
-        <v>72.292993719999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2.9992E-7</v>
+        <v>2.9991625189876502E-7</v>
       </c>
       <c r="B3" s="1">
-        <v>73.248407729999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81.3333333333333</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B4" s="1">
-        <v>72.61146506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79.111111111110702</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2.9992000000000001E-8</v>
+        <v>2.9991625189876468E-8</v>
       </c>
       <c r="B5" s="1">
-        <v>64.331210299999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66.222222222222697</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1E-8</v>
       </c>
       <c r="B6" s="1">
-        <v>45.22293011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38.222222222222697</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>2.9992000000000001E-9</v>
+        <v>2.9991625189876437E-9</v>
       </c>
       <c r="B7" s="1">
-        <v>2.8662423480000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.6666666666666696</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="B8" s="1">
-        <v>4.4585990300000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2.9991999999999998E-10</v>
+        <v>2.999162518987651E-10</v>
       </c>
       <c r="B9" s="1">
-        <v>2.229299674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.1111111111106799</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B10" s="1">
-        <v>1.910828338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.77777777777735</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>72.292993719999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83.555555555555998</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>2.9992E-7</v>
+        <v>2.9991625189876502E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>90.445859900000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83.111111111110702</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B13" s="1">
-        <v>81.847133819999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78.6666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>2.9992000000000001E-8</v>
+        <v>2.9991625189876468E-8</v>
       </c>
       <c r="B14" s="1">
-        <v>71.33757971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68.444444444444002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1E-8</v>
       </c>
       <c r="B15" s="1">
-        <v>29.299363280000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39.111111111110702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>2.9992000000000001E-9</v>
+        <v>2.9991625189876437E-9</v>
       </c>
       <c r="B16" s="1">
-        <v>1.5923570010000001</v>
+        <v>6.6666666666666696</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,15 +558,15 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5923570010000001</v>
+        <v>2.2222222222226602</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>2.9991999999999998E-10</v>
+        <v>2.999162518987651E-10</v>
       </c>
       <c r="B18" s="1">
-        <v>1.5923570010000001</v>
+        <v>2.6666666666666701</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,7 +574,7 @@
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B19" s="1">
-        <v>1.5923570010000001</v>
+        <v>3.1111111111106799</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,15 +582,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B20" s="1">
-        <v>69.745223030000005</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2.9992E-7</v>
+        <v>2.9991625189876502E-7</v>
       </c>
       <c r="B21" s="1">
-        <v>69.108280350000001</v>
+        <v>69.3333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,15 +598,15 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B22" s="1">
-        <v>68.471337680000005</v>
+        <v>66.6666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>2.9992000000000001E-8</v>
+        <v>2.9991625189876468E-8</v>
       </c>
       <c r="B23" s="1">
-        <v>50.000000159999999</v>
+        <v>54.6666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,15 +614,15 @@
         <v>1E-8</v>
       </c>
       <c r="B24" s="1">
-        <v>35.987261349999997</v>
+        <v>25.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>2.9992000000000001E-9</v>
+        <v>2.9991625189876437E-9</v>
       </c>
       <c r="B25" s="1">
-        <v>2.547771011</v>
+        <v>2.6666666666666701</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,15 +630,15 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="B26" s="1">
-        <v>2.229299674</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>2.9991999999999998E-10</v>
+        <v>2.999162518987651E-10</v>
       </c>
       <c r="B27" s="1">
-        <v>1.910828338</v>
+        <v>2.6666666666666701</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +646,7 @@
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B28" s="1">
-        <v>2.229299674</v>
+        <v>2.6666666666666701</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,15 +654,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B29" s="1">
-        <v>93.949044610000001</v>
+        <v>78.222222222222697</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>2.9992E-7</v>
+        <v>2.9991625189876502E-7</v>
       </c>
       <c r="B30" s="1">
-        <v>87.261146539999999</v>
+        <v>75.555555555555998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,15 +670,15 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B31" s="1">
-        <v>91.082802580000006</v>
+        <v>73.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>2.9992000000000001E-8</v>
+        <v>2.9991625189876468E-8</v>
       </c>
       <c r="B32" s="1">
-        <v>72.929936389999995</v>
+        <v>62.222222222222697</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,15 +686,15 @@
         <v>1E-8</v>
       </c>
       <c r="B33" s="1">
-        <v>45.859872780000003</v>
+        <v>35.111111111110702</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>2.9992000000000001E-9</v>
+        <v>2.9991625189876437E-9</v>
       </c>
       <c r="B34" s="1">
-        <v>9.5541404150000009</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,15 +702,15 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="B35" s="1">
-        <v>0.95541432800000003</v>
+        <v>0.44444444444401099</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>2.9991999999999998E-10</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3.1847099999999999E-7</v>
+        <v>2.999162518987651E-10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.88888888888932405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +718,79 @@
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="B37" s="1">
-        <v>0.31847165500000002</v>
+        <v>0.88888888888932405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>88.888888888889397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>2.9991625189876502E-7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>85.3333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>80.888888888889298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>2.9991625189876468E-8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>72.444444444444002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1E-8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40.444444444444002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>2.9991625189876437E-9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.1111111111106799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.44444444444401099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>2.999162518987651E-10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.3333333333333299</v>
       </c>
     </row>
   </sheetData>
